--- a/biology/Zoologie/Dzihunia/Dzihunia.xlsx
+++ b/biology/Zoologie/Dzihunia/Dzihunia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dzihunia est un genre de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes). Ce sont des « loches de pierre » originaires d'Asie centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 novembre 2023) :
 Dzihunia amudarjensis (Rass, 1929)
 Dzihunia ilan (Turdakov, 1936)
 Dzihunia turdakovi Prokofiev, 2003</t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dzihunia Prokofiev (d), 2001[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dzihunia Prokofiev (d), 2001,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Dzihunia, dérive de Dzihun, l'ancien nom arabe de l'Amou-Daria où se rencontre l'espèce Dzihunia amudarjensis[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Dzihunia, dérive de Dzihun, l'ancien nom arabe de l'Amou-Daria où se rencontre l'espèce Dzihunia amudarjensis.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A. M. Prokofiev, « Dzihunia, a new genus of nemacheiline loaches from the Aral Sea basin (Pisces: Cypriniformes: Balitoridae) », Zoosystematica Rossica, Russie, vol. 10, no 1,‎ 2001, p. 209-213 (ISSN 0320-9180, e-ISSN 2410-0226, lire en ligne, consulté le 16 novembre 2023).</t>
         </is>
